--- a/data/trans_orig/P14B32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11499A0A-6000-4261-BF15-2EC30035ED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF07C576-E55C-45E7-9777-102B6F11A045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA9F3848-C82C-4189-B0C1-9727C7B96C87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92699896-47F2-4220-B63F-CD392A02CA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -111,37 +111,37 @@
     <t>38,08%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>61,92%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -216,10 +216,10 @@
     <t>52,0%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>65,79%</t>
@@ -240,10 +240,10 @@
     <t>48,0%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -261,19 +261,19 @@
     <t>46,21%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>49,73%</t>
@@ -288,73 +288,73 @@
     <t>53,79%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -426,19 +426,19 @@
     <t>72,12%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>32,61%</t>
@@ -450,19 +450,19 @@
     <t>27,88%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>52,51%</t>
@@ -513,19 +513,19 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
   </si>
   <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>63,98%</t>
@@ -534,73 +534,73 @@
     <t>75,91%</t>
   </si>
   <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C565B1C-DBF8-4F4F-BFF4-095829D18844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229D4E02-3C38-4DAB-A21D-F02D3FCE0ACD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2075,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796E6CE2-198E-440A-BFC4-1799AA55EDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BA8698-72B5-4B2F-9DC9-6D36414F1FE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B32-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF07C576-E55C-45E7-9777-102B6F11A045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B6DC18-EA4D-4660-AC69-F88FADCAE9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92699896-47F2-4220-B63F-CD392A02CA1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B00EED17-B501-49B7-B110-EB5DF3751BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="186">
   <si>
     <t>Población cuya incontinencia urinaria le limita en 2012 (Tasa respuesta: 1,08%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,46 +105,46 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>38,08%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>61,92%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>81,3%</t>
@@ -156,19 +156,19 @@
     <t>47,22%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>18,7%</t>
@@ -180,70 +180,70 @@
     <t>52,78%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>83,82%</t>
+    <t>83,81%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>16,18%</t>
+    <t>16,19%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -252,115 +252,115 @@
     <t>50,27%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya incontinencia urinaria le limita en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población cuya incontinencia urinaria le limita en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>67,4%</t>
@@ -378,19 +378,19 @@
     <t>47,18%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>52,97%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>35,74%</t>
@@ -402,67 +402,67 @@
     <t>52,82%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>47,03%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>67,39%</t>
   </si>
   <si>
-    <t>31,68%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>32,61%</t>
   </si>
   <si>
-    <t>68,32%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>52,51%</t>
@@ -471,19 +471,19 @@
     <t>27,58%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
   <si>
     <t>47,49%</t>
@@ -492,19 +492,19 @@
     <t>72,42%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>36,02%</t>
@@ -513,19 +513,19 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>63,98%</t>
@@ -534,73 +534,67 @@
     <t>75,91%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>36,4%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>63,6%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229D4E02-3C38-4DAB-A21D-F02D3FCE0ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1253EC2A-C05F-43A2-8D08-BF764D905272}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2075,7 +2069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BA8698-72B5-4B2F-9DC9-6D36414F1FE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B47FAD1-6B99-40BD-A199-87596E2DBBCA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2980,7 +2974,7 @@
         <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2989,13 +2983,13 @@
         <v>21211</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -3004,13 +2998,13 @@
         <v>31722</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3019,13 @@
         <v>7005</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -3040,13 +3034,13 @@
         <v>30059</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -3055,13 +3049,13 @@
         <v>37064</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
